--- a/Jeannine's log.xlsx
+++ b/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
   <si>
     <t>Staff Name</t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t>SC</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Built in PC. No demo required. Log in for external client.</t>
   </si>
 </sst>
 </file>
@@ -816,15 +825,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="19" style="10" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="9" bestFit="1" customWidth="1"/>
@@ -851,6 +860,86 @@
       </c>
       <c r="F1" s="16" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10">
+        <v>42570</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10">
+        <v>42570</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10">
+        <v>42570</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42570</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Jeannine's log.xlsx
+++ b/Jeannine's log.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
   <si>
     <t>Staff Name</t>
   </si>
@@ -825,10 +825,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="F4" sqref="43:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,66 +879,6 @@
         <v>107</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10">
-        <v>42570</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10">
-        <v>42570</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10">
-        <v>42570</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="19" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Jeannine's log.xlsx
+++ b/Jeannine's log.xlsx
@@ -828,7 +828,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="43:F4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jeannine's log.xlsx
+++ b/Jeannine's log.xlsx
@@ -828,7 +828,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F5" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jeannine's log.xlsx
+++ b/Jeannine's log.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t>Staff Name</t>
   </si>
@@ -354,7 +359,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -531,6 +536,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -578,7 +586,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -611,9 +619,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -646,6 +671,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -825,10 +867,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="A3:F5"/>
+      <selection activeCell="A5" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,6 +921,86 @@
         <v>107</v>
       </c>
       <c r="F2" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10">
+        <v>42570</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10">
+        <v>42570</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42570</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="10">
+        <v>42570</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Jeannine's log.xlsx
+++ b/Jeannine's log.xlsx
@@ -870,7 +870,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:F6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>106</v>
@@ -929,7 +929,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>106</v>
@@ -949,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>106</v>
@@ -969,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>106</v>
@@ -989,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="10">
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>106</v>

--- a/Jeannine's log.xlsx
+++ b/Jeannine's log.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
   <si>
     <t>Staff Name</t>
   </si>
@@ -867,10 +867,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="10">
-        <v>42571</v>
+        <v>42570</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>106</v>
@@ -921,86 +921,6 @@
         <v>107</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="10">
-        <v>42571</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="10">
-        <v>42571</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10">
-        <v>42571</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10">
-        <v>42571</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="19" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Jeannine's log.xlsx
+++ b/Jeannine's log.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhan\Documents\Visual Studio 2015\Projects\ClassOpsLogCreator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="90" yWindow="150" windowWidth="14865" windowHeight="10785" tabRatio="440"/>
   </bookViews>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
   <si>
     <t>Staff Name</t>
   </si>
@@ -354,16 +349,49 @@
   </si>
   <si>
     <t>Built in PC. No demo required. Log in for external client.</t>
+  </si>
+  <si>
+    <t>THURSDAY</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roll in PC cart and projector in ceiling. All equipment stays in room just turn off PC and Projector. Lock room. Key for room in CB 121A storeroom. </t>
+  </si>
+  <si>
+    <t>FRIDAY</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Log off and make sure neck mic goes back to drawer.</t>
+  </si>
+  <si>
+    <t>MONDAY</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Make sure Prof Jenkins is okay with room. They are having an exam so need timeclock on screen and she will be using her laptop.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,8 +429,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +520,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -522,6 +562,36 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -535,9 +605,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -586,7 +653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -619,26 +686,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,23 +721,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -867,10 +900,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="A4:F4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +955,96 @@
       </c>
       <c r="F2" s="19" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="10">
+        <v>42572</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10">
+        <v>42573</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10">
+        <v>42576</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
